--- a/data/dicts/region_codes.xlsx
+++ b/data/dicts/region_codes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>region_code</t>
   </si>
@@ -27,34 +27,31 @@
     <t>region_name</t>
   </si>
   <si>
-    <t>г. Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Ленинградская область</t>
-  </si>
-  <si>
-    <t>Вологодская область</t>
-  </si>
-  <si>
-    <t>Архангельская область</t>
-  </si>
-  <si>
-    <t>Республика Коми</t>
-  </si>
-  <si>
-    <t>Псковская область</t>
-  </si>
-  <si>
-    <t>Мурманская область</t>
-  </si>
-  <si>
-    <t>Калининградская область</t>
-  </si>
-  <si>
-    <t>Республика Карелия</t>
-  </si>
-  <si>
-    <t>Новгородская область</t>
+    <t>Свердловская область</t>
+  </si>
+  <si>
+    <t>Курганская область</t>
+  </si>
+  <si>
+    <t>Оренбурская область</t>
+  </si>
+  <si>
+    <t>Пермский край</t>
+  </si>
+  <si>
+    <t>Тюменская область</t>
+  </si>
+  <si>
+    <t>Ханты-мансийский АО - Югра</t>
+  </si>
+  <si>
+    <t>Ямало-ненецкий АО</t>
+  </si>
+  <si>
+    <t>Челябинская область</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан</t>
   </si>
 </sst>
 </file>
@@ -372,16 +369,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -394,7 +391,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -402,7 +399,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -410,7 +407,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -418,7 +415,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -426,7 +423,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -434,7 +431,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -442,7 +439,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -450,7 +447,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -458,18 +455,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
